--- a/KUtil/KMM1_MR01/_Tmpl/tmpl_자재요청.xlsx
+++ b/KUtil/KMM1_MR01/_Tmpl/tmpl_자재요청.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\github\Koin\KUtil\KMM1_MR01\_Tmpl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zDisk\github\Koin\KUtil\KMM1_MR01\_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4410397A-B4A1-43DA-9F20-BAF9052D4EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192C5816-8170-4189-8F93-073A0CAECFA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{E484FDD3-9268-4C8F-AC87-EFB7C30DA928}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{E484FDD3-9268-4C8F-AC87-EFB7C30DA928}"/>
   </bookViews>
   <sheets>
     <sheet name="자재요청서" sheetId="2" r:id="rId1"/>
@@ -5281,8 +5281,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:V73"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A46" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E75" sqref="E75"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="23.1" customHeight="1"/>
@@ -5294,7 +5294,7 @@
     <col min="5" max="5" width="21.625" customWidth="1"/>
     <col min="6" max="6" width="7.375" customWidth="1"/>
     <col min="7" max="7" width="6.375" customWidth="1"/>
-    <col min="8" max="8" width="14.25" customWidth="1"/>
+    <col min="8" max="8" width="13.625" customWidth="1"/>
     <col min="13" max="13" width="9.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/KUtil/KMM1_MR01/_Tmpl/tmpl_자재요청.xlsx
+++ b/KUtil/KMM1_MR01/_Tmpl/tmpl_자재요청.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zDisk\github\Koin\KUtil\KMM1_MR01\_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192C5816-8170-4189-8F93-073A0CAECFA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{656E2F93-F9EF-491E-B250-E08D44D3BC0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{E484FDD3-9268-4C8F-AC87-EFB7C30DA928}"/>
   </bookViews>
@@ -38,7 +38,7 @@
     <definedName name="kkk" hidden="1">[5]Total!#REF!</definedName>
     <definedName name="NEWNAME" hidden="1">{#N/A,#N/A,FALSE,"CCTV"}</definedName>
     <definedName name="ONP" hidden="1">'[6]전체내역 (2)'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">자재요청서!$A$1:$H$73</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">자재요청서!$A$1:$H$37</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">자재요청서!$1:$7</definedName>
     <definedName name="RRR" hidden="1">[7]울산시산표!$G$1:$G$1019</definedName>
     <definedName name="WRITE" hidden="1">{#N/A,#N/A,FALSE,"CCTV"}</definedName>
@@ -146,7 +146,7 @@
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -329,12 +329,6 @@
       <charset val="129"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
@@ -462,7 +456,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -494,9 +488,6 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -559,22 +550,16 @@
     <xf numFmtId="49" fontId="21" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -584,9 +569,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -602,15 +584,6 @@
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5279,10 +5252,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D18C4C2-1A71-4D19-BEAB-DCEEB656CCC7}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:V73"/>
+  <dimension ref="A1:V37"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="H13" sqref="B8:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="23.1" customHeight="1"/>
@@ -5303,23 +5276,23 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:22" ht="26.1" customHeight="1">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
     </row>
     <row r="3" spans="1:22" ht="26.1" customHeight="1">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="2"/>
@@ -5329,7 +5302,7 @@
       <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="14" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="4"/>
@@ -5348,7 +5321,7 @@
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="7"/>
@@ -5357,976 +5330,498 @@
     <row r="6" spans="1:22" ht="5.0999999999999996" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="14"/>
+      <c r="C6" s="13"/>
       <c r="D6" s="7"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:22" s="20" customFormat="1" ht="26.1" customHeight="1">
-      <c r="A7" s="34" t="s">
+    <row r="7" spans="1:22" s="19" customFormat="1" ht="26.1" customHeight="1">
+      <c r="A7" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="36" t="s">
+      <c r="F7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="36" t="s">
+      <c r="G7" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="37" t="s">
+      <c r="H7" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="22"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="21"/>
     </row>
-    <row r="8" spans="1:22" s="20" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A8" s="23">
-        <f>ROW()-7</f>
+    <row r="8" spans="1:22" s="19" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A8" s="22">
+        <v>0</v>
+      </c>
+      <c r="B8" s="23"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="43"/>
+      <c r="K8" s="20"/>
+      <c r="M8" s="25"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="21"/>
+    </row>
+    <row r="9" spans="1:22" s="19" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A9" s="22">
         <v>1</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="50"/>
-      <c r="K8" s="21"/>
-      <c r="M8" s="26"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="21"/>
-      <c r="V8" s="22"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="44"/>
+      <c r="K9" s="20"/>
+      <c r="M9" s="25"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="21"/>
     </row>
-    <row r="9" spans="1:22" s="20" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A9" s="23">
-        <f t="shared" ref="A9:A72" si="0">ROW()-7</f>
+    <row r="10" spans="1:22" s="19" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A10" s="22">
         <v>2</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="51"/>
-      <c r="K9" s="21"/>
-      <c r="M9" s="26"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="21"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="21"/>
-      <c r="V9" s="22"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="45"/>
+      <c r="K10" s="20"/>
+      <c r="M10" s="25"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="21"/>
     </row>
-    <row r="10" spans="1:22" s="20" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A10" s="23">
-        <f t="shared" si="0"/>
+    <row r="11" spans="1:22" s="19" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A11" s="22">
         <v>3</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="52"/>
-      <c r="K10" s="21"/>
-      <c r="M10" s="26"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="21"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="21"/>
-      <c r="V10" s="22"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="46"/>
+      <c r="K11" s="20"/>
+      <c r="M11" s="25"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="21"/>
     </row>
-    <row r="11" spans="1:22" s="20" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A11" s="23">
-        <f t="shared" si="0"/>
+    <row r="12" spans="1:22" s="19" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A12" s="22">
         <v>4</v>
       </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="53"/>
-      <c r="K11" s="21"/>
-      <c r="M11" s="26"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="21"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="21"/>
-      <c r="V11" s="22"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="46"/>
+      <c r="K12" s="20"/>
+      <c r="M12" s="25"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="21"/>
     </row>
-    <row r="12" spans="1:22" s="20" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A12" s="23">
-        <f t="shared" si="0"/>
+    <row r="13" spans="1:22" s="19" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A13" s="22">
         <v>5</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="53"/>
-      <c r="K12" s="21"/>
-      <c r="M12" s="26"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="21"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="21"/>
-      <c r="V12" s="22"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="47"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="20"/>
+      <c r="M13" s="25"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="21"/>
     </row>
-    <row r="13" spans="1:22" s="20" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A13" s="23">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="54"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="21"/>
-      <c r="M13" s="26"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="21"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="21"/>
-      <c r="V13" s="22"/>
-    </row>
-    <row r="14" spans="1:22" s="20" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A14" s="23">
-        <f t="shared" si="0"/>
+    <row r="14" spans="1:22" s="19" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A14" s="22">
+        <f t="shared" ref="A14:A37" si="0">ROW()-7</f>
         <v>7</v>
       </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="51"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="21"/>
-      <c r="M14" s="26"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="44"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="20"/>
+      <c r="M14" s="25"/>
     </row>
-    <row r="15" spans="1:22" s="20" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A15" s="23">
+    <row r="15" spans="1:22" s="19" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A15" s="22">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="38"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="35"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="54"/>
-      <c r="K15" s="21"/>
-      <c r="M15" s="26"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="47"/>
+      <c r="K15" s="20"/>
+      <c r="M15" s="25"/>
     </row>
-    <row r="16" spans="1:22" s="20" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A16" s="23">
+    <row r="16" spans="1:22" s="19" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A16" s="22">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="54"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="21"/>
-      <c r="M16" s="26"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="47"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="20"/>
+      <c r="M16" s="25"/>
     </row>
-    <row r="17" spans="1:12" s="20" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A17" s="23">
+    <row r="17" spans="1:12" s="19" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A17" s="22">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="51"/>
-      <c r="J17" s="19"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="44"/>
+      <c r="J17" s="18"/>
     </row>
-    <row r="18" spans="1:12" s="20" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A18" s="23">
+    <row r="18" spans="1:12" s="19" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A18" s="22">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="52"/>
-      <c r="J18" s="19"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="45"/>
+      <c r="J18" s="18"/>
     </row>
-    <row r="19" spans="1:12" s="20" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A19" s="23">
+    <row r="19" spans="1:12" s="19" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A19" s="22">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="53"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="46"/>
     </row>
-    <row r="20" spans="1:12" s="20" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A20" s="23">
+    <row r="20" spans="1:12" s="19" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A20" s="22">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="53"/>
-      <c r="L20" s="29"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="46"/>
+      <c r="L20" s="28"/>
     </row>
-    <row r="21" spans="1:12" s="20" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A21" s="23">
+    <row r="21" spans="1:12" s="19" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A21" s="22">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="54"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="47"/>
     </row>
-    <row r="22" spans="1:12" s="20" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A22" s="23">
+    <row r="22" spans="1:12" s="19" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A22" s="22">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="51"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="44"/>
     </row>
-    <row r="23" spans="1:12" s="20" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A23" s="23">
+    <row r="23" spans="1:12" s="19" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A23" s="22">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="54"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="47"/>
     </row>
-    <row r="24" spans="1:12" s="20" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A24" s="23">
+    <row r="24" spans="1:12" s="19" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A24" s="22">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="39"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="36"/>
       <c r="D24" s="9"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="55"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="48"/>
     </row>
-    <row r="25" spans="1:12" s="20" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A25" s="23">
+    <row r="25" spans="1:12" s="19" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A25" s="22">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B25" s="30"/>
-      <c r="C25" s="39"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="36"/>
       <c r="D25" s="9"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="55"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="48"/>
     </row>
-    <row r="26" spans="1:12" s="20" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A26" s="23">
+    <row r="26" spans="1:12" s="19" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A26" s="22">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="39"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="36"/>
       <c r="D26" s="9"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="55"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="48"/>
     </row>
-    <row r="27" spans="1:12" s="20" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A27" s="23">
+    <row r="27" spans="1:12" s="19" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A27" s="22">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="39"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="36"/>
       <c r="D27" s="9"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="55"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="48"/>
     </row>
-    <row r="28" spans="1:12" s="20" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A28" s="23">
+    <row r="28" spans="1:12" s="19" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A28" s="22">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B28" s="30"/>
-      <c r="C28" s="39"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="36"/>
       <c r="D28" s="9"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="55"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="48"/>
     </row>
-    <row r="29" spans="1:12" s="20" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A29" s="23">
+    <row r="29" spans="1:12" s="19" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A29" s="22">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B29" s="30"/>
-      <c r="C29" s="39"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="36"/>
       <c r="D29" s="9"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="55"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="48"/>
     </row>
-    <row r="30" spans="1:12" s="20" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A30" s="23">
+    <row r="30" spans="1:12" s="19" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A30" s="22">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B30" s="30"/>
-      <c r="C30" s="39"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="36"/>
       <c r="D30" s="9"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="55"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="48"/>
     </row>
-    <row r="31" spans="1:12" s="20" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A31" s="23">
+    <row r="31" spans="1:12" s="19" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A31" s="22">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B31" s="30"/>
-      <c r="C31" s="39"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="36"/>
       <c r="D31" s="9"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="55"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="48"/>
     </row>
-    <row r="32" spans="1:12" s="20" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A32" s="23">
+    <row r="32" spans="1:12" s="19" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A32" s="22">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B32" s="30"/>
-      <c r="C32" s="39"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="36"/>
       <c r="D32" s="9"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="55"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="48"/>
     </row>
-    <row r="33" spans="1:10" s="20" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A33" s="23">
+    <row r="33" spans="1:8" s="19" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A33" s="22">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B33" s="30"/>
-      <c r="C33" s="39"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="36"/>
       <c r="D33" s="9"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="55"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="48"/>
     </row>
-    <row r="34" spans="1:10" s="20" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A34" s="23">
+    <row r="34" spans="1:8" s="19" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A34" s="22">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B34" s="30"/>
-      <c r="C34" s="39"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="36"/>
       <c r="D34" s="9"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="55"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="48"/>
     </row>
-    <row r="35" spans="1:10" s="20" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A35" s="23">
+    <row r="35" spans="1:8" s="19" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A35" s="22">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B35" s="31"/>
-      <c r="C35" s="39"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="36"/>
       <c r="D35" s="9"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="55"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="48"/>
     </row>
-    <row r="36" spans="1:10" s="20" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A36" s="23">
+    <row r="36" spans="1:8" s="19" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A36" s="22">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="39"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="36"/>
       <c r="D36" s="9"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="55"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="48"/>
     </row>
-    <row r="37" spans="1:10" s="20" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A37" s="23">
+    <row r="37" spans="1:8" s="19" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A37" s="22">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B37" s="31"/>
-      <c r="C37" s="40"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="37"/>
       <c r="D37" s="10"/>
-      <c r="E37" s="46"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="55"/>
-    </row>
-    <row r="38" spans="1:10" s="20" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A38" s="23">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="B38" s="31"/>
-      <c r="C38" s="40"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="46"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="55"/>
-    </row>
-    <row r="39" spans="1:10" s="20" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A39" s="23">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B39" s="31"/>
-      <c r="C39" s="40"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="55"/>
-    </row>
-    <row r="40" spans="1:10" s="20" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A40" s="23">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="B40" s="31"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="45"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="55"/>
-    </row>
-    <row r="41" spans="1:10" s="20" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A41" s="23">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="B41" s="31"/>
-      <c r="C41" s="40"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="55"/>
-      <c r="I41" s="32"/>
-      <c r="J41" s="32"/>
-    </row>
-    <row r="42" spans="1:10" s="20" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A42" s="23">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="B42" s="31"/>
-      <c r="C42" s="40"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="45"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="55"/>
-    </row>
-    <row r="43" spans="1:10" s="20" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A43" s="23">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="B43" s="31"/>
-      <c r="C43" s="40"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="45"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="55"/>
-      <c r="I43" s="32"/>
-      <c r="J43" s="32"/>
-    </row>
-    <row r="44" spans="1:10" s="20" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A44" s="23">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="B44" s="31"/>
-      <c r="C44" s="40"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="45"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="55"/>
-    </row>
-    <row r="45" spans="1:10" s="20" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A45" s="23">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="B45" s="31"/>
-      <c r="C45" s="40"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="45"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="55"/>
-    </row>
-    <row r="46" spans="1:10" s="20" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A46" s="23">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="B46" s="31"/>
-      <c r="C46" s="40"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="47"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="55"/>
-    </row>
-    <row r="47" spans="1:10" s="20" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A47" s="23">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="B47" s="31"/>
-      <c r="C47" s="40"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="47"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="55"/>
-    </row>
-    <row r="48" spans="1:10" s="20" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A48" s="23">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="B48" s="31"/>
-      <c r="C48" s="41"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="55"/>
-    </row>
-    <row r="49" spans="1:8" s="20" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A49" s="23">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="B49" s="31"/>
-      <c r="C49" s="40"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="48"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="55"/>
-    </row>
-    <row r="50" spans="1:8" s="20" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A50" s="23">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="B50" s="31"/>
-      <c r="C50" s="40"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="48"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="55"/>
-    </row>
-    <row r="51" spans="1:8" s="20" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A51" s="23">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="B51" s="31"/>
-      <c r="C51" s="40"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="48"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="55"/>
-    </row>
-    <row r="52" spans="1:8" s="20" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A52" s="23">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="B52" s="31"/>
-      <c r="C52" s="40"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="47"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="55"/>
-    </row>
-    <row r="53" spans="1:8" s="20" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A53" s="23">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="B53" s="31"/>
-      <c r="C53" s="40"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="47"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="55"/>
-    </row>
-    <row r="54" spans="1:8" s="20" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A54" s="23">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="B54" s="31"/>
-      <c r="C54" s="40"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="47"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="55"/>
-    </row>
-    <row r="55" spans="1:8" s="20" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A55" s="23">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="B55" s="31"/>
-      <c r="C55" s="40"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="49"/>
-      <c r="F55" s="18"/>
-      <c r="G55" s="17"/>
-      <c r="H55" s="55"/>
-    </row>
-    <row r="56" spans="1:8" s="20" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A56" s="23">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="B56" s="31"/>
-      <c r="C56" s="40"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="47"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="55"/>
-    </row>
-    <row r="57" spans="1:8" s="20" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A57" s="23">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="B57" s="31"/>
-      <c r="C57" s="41"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="47"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="55"/>
-    </row>
-    <row r="58" spans="1:8" s="20" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A58" s="23">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="B58" s="31"/>
-      <c r="C58" s="41"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="47"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="55"/>
-    </row>
-    <row r="59" spans="1:8" s="20" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A59" s="23">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="B59" s="31"/>
-      <c r="C59" s="41"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="47"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="55"/>
-    </row>
-    <row r="60" spans="1:8" s="20" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A60" s="23">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-      <c r="B60" s="31"/>
-      <c r="C60" s="41"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="47"/>
-      <c r="F60" s="18"/>
-      <c r="G60" s="17"/>
-      <c r="H60" s="55"/>
-    </row>
-    <row r="61" spans="1:8" s="20" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A61" s="23">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="B61" s="31"/>
-      <c r="C61" s="40"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="47"/>
-      <c r="F61" s="18"/>
-      <c r="G61" s="17"/>
-      <c r="H61" s="55"/>
-    </row>
-    <row r="62" spans="1:8" s="20" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A62" s="23">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="B62" s="31"/>
-      <c r="C62" s="41"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="47"/>
-      <c r="F62" s="18"/>
-      <c r="G62" s="17"/>
-      <c r="H62" s="55"/>
-    </row>
-    <row r="63" spans="1:8" s="20" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A63" s="23">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="B63" s="31"/>
-      <c r="C63" s="41"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="47"/>
-      <c r="F63" s="33"/>
-      <c r="G63" s="17"/>
-      <c r="H63" s="55"/>
-    </row>
-    <row r="64" spans="1:8" s="20" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A64" s="23">
-        <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
-      <c r="B64" s="31"/>
-      <c r="C64" s="41"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="47"/>
-      <c r="F64" s="18"/>
-      <c r="G64" s="17"/>
-      <c r="H64" s="55"/>
-    </row>
-    <row r="65" spans="1:8" s="20" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A65" s="23">
-        <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-      <c r="B65" s="31"/>
-      <c r="C65" s="40"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="48"/>
-      <c r="F65" s="18"/>
-      <c r="G65" s="17"/>
-      <c r="H65" s="55"/>
-    </row>
-    <row r="66" spans="1:8" s="20" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A66" s="23">
-        <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="B66" s="31"/>
-      <c r="C66" s="40"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="47"/>
-      <c r="F66" s="18"/>
-      <c r="G66" s="17"/>
-      <c r="H66" s="55"/>
-    </row>
-    <row r="67" spans="1:8" s="20" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A67" s="23">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="B67" s="31"/>
-      <c r="C67" s="41"/>
-      <c r="D67" s="11"/>
-      <c r="E67" s="47"/>
-      <c r="F67" s="18"/>
-      <c r="G67" s="17"/>
-      <c r="H67" s="55"/>
-    </row>
-    <row r="68" spans="1:8" ht="23.1" customHeight="1">
-      <c r="A68" s="23">
-        <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-      <c r="B68" s="31"/>
-      <c r="C68" s="41"/>
-      <c r="D68" s="11"/>
-      <c r="E68" s="47"/>
-      <c r="F68" s="18"/>
-      <c r="G68" s="17"/>
-      <c r="H68" s="55"/>
-    </row>
-    <row r="69" spans="1:8" ht="23.1" customHeight="1">
-      <c r="A69" s="23">
-        <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
-      <c r="B69" s="31"/>
-      <c r="C69" s="41"/>
-      <c r="D69" s="11"/>
-      <c r="E69" s="47"/>
-      <c r="F69" s="18"/>
-      <c r="G69" s="17"/>
-      <c r="H69" s="55"/>
-    </row>
-    <row r="70" spans="1:8" ht="23.1" customHeight="1">
-      <c r="A70" s="23">
-        <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-      <c r="B70" s="31"/>
-      <c r="C70" s="41"/>
-      <c r="D70" s="11"/>
-      <c r="E70" s="47"/>
-      <c r="F70" s="18"/>
-      <c r="G70" s="17"/>
-      <c r="H70" s="55"/>
-    </row>
-    <row r="71" spans="1:8" ht="23.1" customHeight="1">
-      <c r="A71" s="23">
-        <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="B71" s="31"/>
-      <c r="C71" s="41"/>
-      <c r="D71" s="11"/>
-      <c r="E71" s="47"/>
-      <c r="F71" s="18"/>
-      <c r="G71" s="17"/>
-      <c r="H71" s="55"/>
-    </row>
-    <row r="72" spans="1:8" ht="23.1" customHeight="1">
-      <c r="A72" s="23">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="B72" s="31"/>
-      <c r="C72" s="41"/>
-      <c r="D72" s="11"/>
-      <c r="E72" s="47"/>
-      <c r="F72" s="18"/>
-      <c r="G72" s="17"/>
-      <c r="H72" s="55"/>
-    </row>
-    <row r="73" spans="1:8" ht="23.1" customHeight="1">
-      <c r="A73" s="23">
-        <f t="shared" ref="A73" si="1">ROW()-7</f>
-        <v>66</v>
-      </c>
-      <c r="B73" s="31"/>
-      <c r="C73" s="41"/>
-      <c r="D73" s="11"/>
-      <c r="E73" s="47"/>
-      <c r="F73" s="18"/>
-      <c r="G73" s="17"/>
-      <c r="H73" s="55"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="1">
